--- a/public/template-file.xlsx
+++ b/public/template-file.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\solid-projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\solid-projects\port-data-center\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B86352A-81BA-4EC2-9980-D0E7178E7AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA739D9-B6AD-4778-BBE7-3AA3921ACB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B04328EA-F7A9-4251-98A0-C4C135F57712}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B04328EA-F7A9-4251-98A0-C4C135F57712}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="PortId" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Instruction" sheetId="3" r:id="rId2"/>
+    <sheet name="PortId" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -156,13 +157,13 @@
     <t>Remark:</t>
   </si>
   <si>
-    <t>Delete the default data and change with your vessel data</t>
-  </si>
-  <si>
     <t>Don't delete or modify the header</t>
   </si>
   <si>
-    <t>Replace the portId  (you can find on the sheet PortId)</t>
+    <t>Replace the portId  (you can find the list of the port id on the sheet PortId)</t>
+  </si>
+  <si>
+    <t>Replace the default vessel data with your vessel data accordingly</t>
   </si>
 </sst>
 </file>
@@ -270,13 +271,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,13 +614,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B32D48-7C0E-476B-8389-5CF5905860C0}">
   <dimension ref="A2:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
@@ -708,7 +709,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -776,24 +777,16 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="A8" s="10"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="A9" s="10"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="A10" s="10"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="A11" s="10"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
@@ -859,6 +852,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E73A284-B231-4F3D-8C1C-321AE908E09F}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80C03F0-2E24-44D7-A9DB-B753C5CE3264}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -873,10 +901,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
